--- a/jacobi/src/test/resources/jacobi/test/data/BasicQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/BasicQRTest.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>#1</t>
   </si>
   <si>
     <t>#2</t>
+  </si>
+  <si>
+    <t>tr=</t>
+  </si>
+  <si>
+    <t>det=</t>
   </si>
 </sst>
 </file>
@@ -360,20 +366,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -381,7 +387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-7</v>
       </c>
@@ -398,7 +404,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -415,7 +421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -432,7 +438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -443,13 +449,20 @@
         <v>-3</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E6">
         <v>-9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>D6+E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -460,18 +473,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f>D6*E7-E6*D7</f>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -479,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-3</v>
       </c>
@@ -502,7 +522,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-3</v>
       </c>
@@ -525,7 +545,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -548,7 +568,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -571,7 +591,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -594,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -670,139 +690,139 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(-10, 10)</f>
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">RANDBETWEEN(-10, 10)</f>
+        <v>-9</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ca="1" si="0"/>
         <v>-8</v>
       </c>
-      <c r="C1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:K17" ca="1" si="1">RANDBETWEEN(-10, 10)</f>
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -812,81 +832,81 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
         <v>-5</v>
       </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
-      </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -894,29 +914,29 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
@@ -924,207 +944,207 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
         <v>-8</v>
       </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>-8</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
         <v>-8</v>
       </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
-      </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1138,177 +1158,177 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
         <v>-6</v>
       </c>
-      <c r="B13">
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="G13">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="J13">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
-      </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1318,49 +1338,49 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>-7</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
@@ -1368,219 +1388,219 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="1"/>
         <v>-4</v>
       </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ref="A18:K22" ca="1" si="2">RANDBETWEEN(-10, 10)</f>
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
-      </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
       <c r="K19">
         <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
-      </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="2"/>
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="2"/>
@@ -1590,93 +1610,93 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="2"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>-7</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
       <c r="K21">
         <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
         <v>-9</v>
       </c>
-      <c r="B22">
+      <c r="G22">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I22">
         <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="J22">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="K22">
         <f t="shared" ca="1" si="2"/>
         <v>-2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="K22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/BasicQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/BasicQRTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>#1</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>det=</t>
+  </si>
+  <si>
+    <t>#3</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,6 +661,139 @@
       </c>
       <c r="G17">
         <v>-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>-9</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>-4</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>-10</v>
+      </c>
+      <c r="D23">
+        <v>-8</v>
+      </c>
+      <c r="E23">
+        <v>-3</v>
+      </c>
+      <c r="F23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>-3</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +818,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I13"/>
+      <selection activeCell="C7" sqref="C7:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,111 +826,111 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(-10, 10)</f>
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">RANDBETWEEN(-10, 10)</f>
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <f t="shared" ca="1" si="0"/>
         <v>-8</v>
-      </c>
-      <c r="I1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="K1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:K17" ca="1" si="1">RANDBETWEEN(-10, 10)</f>
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
         <v>-2</v>
       </c>
-      <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E2">
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="K2">
         <f t="shared" ca="1" si="0"/>
         <v>-3</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
@@ -802,149 +938,149 @@
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
         <v>-3</v>
       </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="C4">
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I4">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
         <v>-5</v>
       </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
-      </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
@@ -952,41 +1088,41 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
@@ -994,29 +1130,29 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
@@ -1024,173 +1160,173 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G10">
         <f t="shared" ca="1" si="0"/>
         <v>-8</v>
       </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
         <v>-5</v>
       </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1200,49 +1336,49 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
@@ -1250,261 +1386,261 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>-7</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
         <v>-6</v>
       </c>
-      <c r="B15">
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="K15">
         <f t="shared" ca="1" si="0"/>
         <v>-9</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E16">
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="I16">
         <f t="shared" ca="1" si="0"/>
         <v>-9</v>
       </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
-      </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
         <v>-3</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="1"/>
         <v>-7</v>
       </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8</v>
-      </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ref="A18:K22" ca="1" si="2">RANDBETWEEN(-10, 10)</f>
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="2"/>
         <v>-6</v>
       </c>
-      <c r="B18">
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G18">
         <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F18">
+      <c r="H18">
         <f t="shared" ca="1" si="2"/>
         <v>-8</v>
       </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="2"/>
@@ -1512,105 +1648,105 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="2"/>
         <v>-6</v>
       </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
         <v>-2</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
       <c r="J20">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>-10</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
@@ -1618,85 +1754,85 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
       <c r="K21">
         <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="2"/>
         <v>-7</v>
       </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
-      </c>
       <c r="K22">
         <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
+        <v>-8</v>
       </c>
     </row>
   </sheetData>
